--- a/Data/Regression/news_index_dire_lex_q.xlsx
+++ b/Data/Regression/news_index_dire_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2351522188833644</v>
+        <v>0.184126107446367</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1778411436182541</v>
+        <v>0.1796260210998541</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2318212450462055</v>
+        <v>0.1783818287388619</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1909476134821678</v>
+        <v>0.171390272734545</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2081501640640571</v>
+        <v>0.1826165701894412</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2179852024260207</v>
+        <v>0.1652494494628047</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1541475400864507</v>
+        <v>0.1441364452715521</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2222993677453978</v>
+        <v>0.1708360163390667</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23496842248352</v>
+        <v>0.1791749495746303</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1750847675698416</v>
+        <v>0.1785503960442183</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183420662321279</v>
+        <v>0.1740507127315363</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2147354219427928</v>
+        <v>0.1496194784141796</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1797720865737927</v>
+        <v>0.1599633829449577</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1732545887356372</v>
+        <v>0.160945710030661</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1859558577887446</v>
+        <v>0.1744602343050941</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1423503733020705</v>
+        <v>0.1658829632855318</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1701593803900532</v>
+        <v>0.1673651134834219</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1552385535835933</v>
+        <v>0.1573612415923849</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1855592283153522</v>
+        <v>0.1542231881246032</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1514459341982945</v>
+        <v>0.1475035294481965</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1268297917214343</v>
+        <v>0.1365884827636877</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1297622701095827</v>
+        <v>0.1401471074004114</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.18508661771559</v>
+        <v>0.151275685537412</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1710790080054483</v>
+        <v>0.1532537094770667</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1854850546370486</v>
+        <v>0.1497028153196722</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1807113771224464</v>
+        <v>0.1628018239629279</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2127748616925998</v>
+        <v>0.1606455988602098</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1783736756789942</v>
+        <v>0.143408626342882</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1463634822281537</v>
+        <v>0.1448268323801018</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1868930955185983</v>
+        <v>0.1483505014785586</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1864654286913243</v>
+        <v>0.1342153505625612</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1448796201577625</v>
+        <v>0.1341161871209167</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1430942893696855</v>
+        <v>0.1400259558942705</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2216201152491689</v>
+        <v>0.1597854789710134</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2455446979807789</v>
+        <v>0.1507678276125642</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2178490664712462</v>
+        <v>0.1494519429949486</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.203316242443501</v>
+        <v>0.1613668901264994</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1502295092420216</v>
+        <v>0.1599814572333462</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1943913551658331</v>
+        <v>0.1752513673116333</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2010107938433427</v>
+        <v>0.1715505797699341</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1804876508896796</v>
+        <v>0.2027097607666466</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1760795153820288</v>
+        <v>0.1788557154793268</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1696170749480885</v>
+        <v>0.1683834208174218</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1656351876969344</v>
+        <v>0.1383749148189084</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2097373316018838</v>
+        <v>0.1921862116601349</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1525825997158453</v>
+        <v>0.1623237215189934</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1540829792987585</v>
+        <v>0.1578403570481392</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1771552806319133</v>
+        <v>0.1356993288169208</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1896732106029546</v>
+        <v>0.1767616479102631</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1007117043207227</v>
+        <v>0.09605582513552177</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1822736379476782</v>
+        <v>0.146038190707271</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1741634576975017</v>
+        <v>0.1388229104539902</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2066307583369977</v>
+        <v>0.1467456421067332</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2134062875214534</v>
+        <v>0.1790176705452078</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2152036263620691</v>
+        <v>0.2248210930975097</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2265853486721338</v>
+        <v>0.2063194022700982</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2000377734061227</v>
+        <v>0.1940893405428404</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2169021761480947</v>
+        <v>0.1699151125145253</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2184446678785337</v>
+        <v>0.1928012689948318</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1859359354950146</v>
+        <v>0.1953489121056404</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2063953610558109</v>
+        <v>0.1845413001605019</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.210787452378244</v>
+        <v>0.1997192299448324</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2029397598826157</v>
+        <v>0.180553045433808</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1788846894937111</v>
+        <v>0.2018849589516557</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1675166876562951</v>
+        <v>0.1759642050139114</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1614157875446259</v>
+        <v>0.2174606311604063</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.219799605932343</v>
+        <v>0.2271200114648839</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2005860973421525</v>
+        <v>0.2238450722798384</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2014831262527016</v>
+        <v>0.2229485394803477</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1975494398835967</v>
+        <v>0.2102340953485294</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1641540056851596</v>
+        <v>0.2221369169739432</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1424371484563859</v>
+        <v>0.1491281547750925</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1515029126754433</v>
+        <v>0.1530071582812194</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1786052742206766</v>
+        <v>0.1445464844191743</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1507797380357365</v>
+        <v>0.1480557682860351</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1647013158668448</v>
+        <v>0.1508696932803874</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1889814564272376</v>
+        <v>0.1754252181791354</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1737006907530977</v>
+        <v>0.1674393367792842</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172087953937621</v>
+        <v>0.1490802054217971</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2141004646998952</v>
+        <v>0.1756816231331581</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1859272088637473</v>
+        <v>0.1990202224694347</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1925121616332836</v>
+        <v>0.1904227761029527</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1768087484083138</v>
+        <v>0.1822298336135019</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1527101283435563</v>
+        <v>0.158582716935402</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1770139869455688</v>
+        <v>0.1764562650248296</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1529099442630137</v>
+        <v>0.1649652500070057</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1589240034709582</v>
+        <v>0.1592161697883133</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.159470421513693</v>
+        <v>0.1469918632965184</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1347308054269903</v>
+        <v>0.1515708322437534</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1248032852256495</v>
+        <v>0.1333762522389767</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1491141746315469</v>
+        <v>0.1480793820929563</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>0.08971253958166268</v>
+        <v>0.08478127872590983</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>0.07681362753908219</v>
+        <v>0.0677880399984391</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05408798005014894</v>
+        <v>0.03858555858829811</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04545428984829723</v>
+        <v>0.04271179605892358</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03377084133060541</v>
+        <v>0.03778344523516079</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08763161389729358</v>
+        <v>0.02907444214052552</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>0.09407171456933539</v>
+        <v>0.1208601980548001</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07237954408431786</v>
+        <v>0.1150912613548455</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>0.05683580644960021</v>
+        <v>0.09544636980927183</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>0.06580759910650649</v>
+        <v>0.09422466003811494</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>0.04997355334042201</v>
+        <v>0.08589879255505192</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.07705327290100135</v>
+        <v>0.1335490397055448</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1230370153894256</v>
+        <v>0.1616006501478664</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1497219412956813</v>
+        <v>0.1689990804634685</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1193736130793916</v>
+        <v>0.1611467394163353</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>0.109874838446405</v>
+        <v>0.1465197357898331</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09994548290996276</v>
+        <v>0.1596235553951429</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1043542209960717</v>
+        <v>0.1516041238624902</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1427043432228982</v>
+        <v>0.1780861998533311</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1781664549410581</v>
+        <v>0.205768154999281</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1393228758996576</v>
+        <v>0.1818591288244857</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_dire_lex_q.xlsx
+++ b/Data/Regression/news_index_dire_lex_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.184126107446367</v>
+        <v>0.1985442239804951</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1796260210998541</v>
+        <v>0.1866399869061557</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1783818287388619</v>
+        <v>0.1826406162375717</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.171390272734545</v>
+        <v>0.1783678884848863</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1826165701894412</v>
+        <v>0.1921769114357997</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1652494494628047</v>
+        <v>0.1696076182101395</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1441364452715521</v>
+        <v>0.1448399089581314</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1708360163390667</v>
+        <v>0.1612445346553734</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1791749495746303</v>
+        <v>0.1865517326342489</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1785503960442183</v>
+        <v>0.1735213183965536</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1740507127315363</v>
+        <v>0.1749377013915717</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1496194784141796</v>
+        <v>0.1604547172841755</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1599633829449577</v>
+        <v>0.1656398174702555</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.160945710030661</v>
+        <v>0.1580003900346718</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1744602343050941</v>
+        <v>0.1678899779427724</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1658829632855318</v>
+        <v>0.1710413643450251</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1673651134834219</v>
+        <v>0.1737711075547568</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1573612415923849</v>
+        <v>0.1602864972217996</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1542231881246032</v>
+        <v>0.1599938689336756</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1475035294481965</v>
+        <v>0.1554161970926925</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1365884827636877</v>
+        <v>0.1484866342292333</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1401471074004114</v>
+        <v>0.146497255800746</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.151275685537412</v>
+        <v>0.155389055123657</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1532537094770667</v>
+        <v>0.155873140103297</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1497028153196722</v>
+        <v>0.1553435421951293</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1628018239629279</v>
+        <v>0.1606042873867271</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1606455988602098</v>
+        <v>0.1492890088347548</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.143408626342882</v>
+        <v>0.1519129122063036</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1448268323801018</v>
+        <v>0.1552855069809272</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1483505014785586</v>
+        <v>0.1456383812334228</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1342153505625612</v>
+        <v>0.1403135568376104</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1341161871209167</v>
+        <v>0.1453070022240072</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1400259558942705</v>
+        <v>0.1386817013649556</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1597854789710134</v>
+        <v>0.1674344346627562</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1507678276125642</v>
+        <v>0.1575295290770617</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1494519429949486</v>
+        <v>0.1528174267055392</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1613668901264994</v>
+        <v>0.1639307560677554</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1599814572333462</v>
+        <v>0.1662556922673162</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1752513673116333</v>
+        <v>0.1802772265293202</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1715505797699341</v>
+        <v>0.1831003127304818</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2027097607666466</v>
+        <v>0.2025406606168733</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1788557154793268</v>
+        <v>0.181283447382422</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1683834208174218</v>
+        <v>0.1641402198915538</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1383749148189084</v>
+        <v>0.1385241851047442</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1921862116601349</v>
+        <v>0.1944329683311521</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1623237215189934</v>
+        <v>0.1636702383707456</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1578403570481392</v>
+        <v>0.1539614042113845</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1356993288169208</v>
+        <v>0.1361968772689354</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1767616479102631</v>
+        <v>0.1737665923172359</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09605582513552177</v>
+        <v>0.1021131173889633</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.146038190707271</v>
+        <v>0.1462920884642067</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1388229104539902</v>
+        <v>0.1468497988063317</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1467456421067332</v>
+        <v>0.1534195047273744</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1790176705452078</v>
+        <v>0.1845595941515024</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2248210930975097</v>
+        <v>0.2194350716190511</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2063194022700982</v>
+        <v>0.2064442227598137</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1940893405428404</v>
+        <v>0.1809147169412804</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1699151125145253</v>
+        <v>0.1860329653364524</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1928012689948318</v>
+        <v>0.1991048244935097</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1953489121056404</v>
+        <v>0.2096870396132235</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1845413001605019</v>
+        <v>0.1847569999161136</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1997192299448324</v>
+        <v>0.2050486370997104</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180553045433808</v>
+        <v>0.1919498412939899</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2018849589516557</v>
+        <v>0.2035515089976227</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1759642050139114</v>
+        <v>0.1751395189925882</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2174606311604063</v>
+        <v>0.215614699273762</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2271200114648839</v>
+        <v>0.2244112178457802</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2238450722798384</v>
+        <v>0.2370283760005266</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2229485394803477</v>
+        <v>0.2276577373599017</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2102340953485294</v>
+        <v>0.2253731794913157</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2221369169739432</v>
+        <v>0.2270981882606749</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1491281547750925</v>
+        <v>0.1498284155014806</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1530071582812194</v>
+        <v>0.1533994425489605</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1445464844191743</v>
+        <v>0.1355081745184277</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1480557682860351</v>
+        <v>0.1472695990070197</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1508696932803874</v>
+        <v>0.152658784176219</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1754252181791354</v>
+        <v>0.1762413980286324</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1674393367792842</v>
+        <v>0.1714064369934317</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1490802054217971</v>
+        <v>0.152973649185009</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1756816231331581</v>
+        <v>0.1782661944112419</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1990202224694347</v>
+        <v>0.2029135736328037</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1904227761029527</v>
+        <v>0.2042124064406084</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1822298336135019</v>
+        <v>0.1965870037708624</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.158582716935402</v>
+        <v>0.168076330723431</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1764562650248296</v>
+        <v>0.1820506961392468</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1649652500070057</v>
+        <v>0.1631175094910324</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1592161697883133</v>
+        <v>0.1616848851973691</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1469918632965184</v>
+        <v>0.151936439246469</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1515708322437534</v>
+        <v>0.1572431567912909</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1333762522389767</v>
+        <v>0.1393479881264806</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1480793820929563</v>
+        <v>0.1572423980529254</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>0.08478127872590983</v>
+        <v>0.084691877857782</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0677880399984391</v>
+        <v>0.06795963838914088</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03858555858829811</v>
+        <v>0.04468527498174919</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04271179605892358</v>
+        <v>0.06231644306424333</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03778344523516079</v>
+        <v>0.04822599598411951</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02907444214052552</v>
+        <v>0.02998407257534461</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1208601980548001</v>
+        <v>0.1287088909171135</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1150912613548455</v>
+        <v>0.1196779844962726</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>0.09544636980927183</v>
+        <v>0.09837022502615231</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09422466003811494</v>
+        <v>0.09777443198543867</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08589879255505192</v>
+        <v>0.09269532556467862</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1335490397055448</v>
+        <v>0.1293944082623475</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1616006501478664</v>
+        <v>0.1661975539380779</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1689990804634685</v>
+        <v>0.170618031561349</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1611467394163353</v>
+        <v>0.160777004165745</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1465197357898331</v>
+        <v>0.1440683794149144</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1596235553951429</v>
+        <v>0.1714844272458558</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1516041238624902</v>
+        <v>0.1567275172243064</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1780861998533311</v>
+        <v>0.186351862107239</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.205768154999281</v>
+        <v>0.2136301864813475</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1818591288244857</v>
+        <v>0.1888425177813697</v>
       </c>
     </row>
   </sheetData>
